--- a/Output/SLICC_data.xlsx
+++ b/Output/SLICC_data.xlsx
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="b">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AN3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="b">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="b">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AN14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="b">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AN16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="b">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AN17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="b">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="AN18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="b">
         <v>1</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AN28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="b">
         <v>1</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="AN32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="b">
         <v>1</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="AN34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="b">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="AN44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="b">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="AN46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="b">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AN51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="b">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="AN54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="b">
         <v>0</v>
